--- a/PCS_Field_Guide_Templates_v3.2.xlsx
+++ b/PCS_Field_Guide_Templates_v3.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBM Cool Solutioning Tool\UserGuide\EX_VMware_SingleSite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvenu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2B49A-6D1D-4FAB-88AA-31144CEE4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA466F2-05BC-40B2-A6B0-03119080956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="-6750" windowWidth="21600" windowHeight="11835" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32100" yWindow="-6405" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_ReadMe" sheetId="1" r:id="rId1"/>
@@ -828,6 +828,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -840,21 +845,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,9 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A3:A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1350,74 +1348,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1561,19 +1559,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="21">
         <v>1</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="3">
@@ -1706,14 +1704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1794,14 +1792,14 @@
       <c r="B11" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1820,93 +1818,93 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1936,14 +1934,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1994,14 +1992,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2030,14 +2028,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2064,14 +2062,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2090,14 +2088,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2124,14 +2122,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2142,93 +2140,93 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2262,14 +2260,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2296,14 +2294,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2346,14 +2344,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2388,14 +2386,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2422,14 +2420,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2440,107 +2438,107 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2560,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2631,8 +2629,8 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>181</v>
       </c>
     </row>
